--- a/out/Итоговый файл.xlsx
+++ b/out/Итоговый файл.xlsx
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Радченко Т.Л.ИП</t>
+          <t>ИП Радченко Т.Л.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>НаталиТОО</t>
+          <t>ТОО Натали</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ИП Акатаев Б.</t>
+          <t>ИП  Акатаев Б.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Салимов Сакен Саликович ФЛ</t>
+          <t>ФЛ Салимов Сакен Саликович</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Наубетова Калипа Амангельдиевна ФЛ</t>
+          <t>ФЛ Наубетова Калипа Амангельдиевна</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Галкина Татьяна Георгиевна ФЛ</t>
+          <t>ФЛ Галкина Татьяна Георгиевна</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ермольчев Дмитрий Павлович ФЛ</t>
+          <t>ФЛ Ермольчев Дмитрий Павлович</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Есекенов Максут Айткалиевич ФЛ</t>
+          <t>ФЛ Есекенов Максут Айткалиевич</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Имангалиев А.М.ИП</t>
+          <t>ИП Имангалиев А.М.</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>ИП Исмагулов</t>
+          <t>ИП  Исмагулов</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>PillarisKazakhsanТОО</t>
+          <t>ТОО PillarisKazakhsan</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Федерация по тяжёлой атлетике Атырауской области ОО</t>
+          <t>ОО Федерация по тяжёлой атлетике Атырауской области</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Такси ОнлайнИП</t>
+          <t>ИП Такси Онлайн</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Болашак жана АлемТОО</t>
+          <t>ТОО Болашак жана Алем</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Рысмагмбетов  Т.Т.ИП</t>
+          <t>ИП Рысмагмбетов  Т.Т.</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>КазСвет Group ФилиалТОО</t>
+          <t>ТОО КазСвет Group Филиал</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>ProfiConsultingGroupТОО</t>
+          <t>ТОО ProfiConsultingGroup</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Экологический Альянс Байтақ Болашақ ОО</t>
+          <t>ОО Экологический Альянс Байтақ Болашақ</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Федерация волейбола Атырауской области ОО</t>
+          <t>ОО Федерация волейбола Атырауской области</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Частный судебный исполнитель БЕКТЕМЕСОВА МИРАМГУЛЬ САТВАЛДЫЕВНА</t>
+          <t>КТ Частный судебный исполнитель БЕЕМЕСОВА МИРАМГУЛЬ САТВАЛДЫЕВНА</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -18287,7 +18287,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>ИП Нур Сауда</t>
+          <t>ИП  Нур Сауда</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
